--- a/biology/Botanique/Doronicum_plantagineum/Doronicum_plantagineum.xlsx
+++ b/biology/Botanique/Doronicum_plantagineum/Doronicum_plantagineum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doronicum plantagineum
 Le Doronic plantain (Doronicum plantagineum) est une espèce de plante à fleurs de la famille des Astéracées.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le doronic plantain une plante herbacée vivace à souche horizontale, stolonifère, tuberculeuse et velue.
 Inflorescence : capitule solitaire à fleurs jaunes à involucre à folioles linéaires et ciliées sur une tige de 40-80 cm simple, pubescente-glanduleuse au sommet et peu feuillée
 Feuillage : feuilles entières, dentées ou superficiellement sinuées ; les radicales longuement pétiolées, à limbe ovale sensiblement décurrent sur le pétiole ; les caulinaires plus petites, oblongues-lancéolées, sessiles, presque embrassantes
 Période de floraison : avril à mai
-Habitat : bois frais, haies[2],[3]</t>
+Habitat : bois frais, haies,</t>
         </is>
       </c>
     </row>
@@ -546,10 +560,12 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Répartition générale : atlantique (France, Espagne, Portugal) et méditerranéenne (Italie, Maroc, Algérie, Tunisie) — introduite dans d'autres régions d'Europe[4]
-En France : Région parisienne, Normandie, Bretagne, Centre, Aveyron, Gard[5] — en extension vers le nord et l'est (indigénat à étudier).Certaines de ces localisations et extensions, notamment dans le Centre, correspondraient à Doronicum ×willdenowii (Doronic de Willdenow), un taxon d'origine horticole, de formule Doronicum pardalianches  × plantagineum ou probablement plus complexe, à savoir D. austriacum Jacq. × D. ×excelsum (N.E. Brown) Stace. Doronicum ×willdenowii a souvent plusieurs capitules et a des feuilles basilaires légèrement cordées. Les feuilles culinaires sont nombreuses, plus grandes que les feuilles basilaires et à limbe souvent en forme de violon et à oreillettes embrassantes[3],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Répartition générale : atlantique (France, Espagne, Portugal) et méditerranéenne (Italie, Maroc, Algérie, Tunisie) — introduite dans d'autres régions d'Europe
+En France : Région parisienne, Normandie, Bretagne, Centre, Aveyron, Gard — en extension vers le nord et l'est (indigénat à étudier).Certaines de ces localisations et extensions, notamment dans le Centre, correspondraient à Doronicum ×willdenowii (Doronic de Willdenow), un taxon d'origine horticole, de formule Doronicum pardalianches  × plantagineum ou probablement plus complexe, à savoir D. austriacum Jacq. × D. ×excelsum (N.E. Brown) Stace. Doronicum ×willdenowii a souvent plusieurs capitules et a des feuilles basilaires légèrement cordées. Les feuilles culinaires sont nombreuses, plus grandes que les feuilles basilaires et à limbe souvent en forme de violon et à oreillettes embrassantes,.</t>
         </is>
       </c>
     </row>
@@ -577,22 +593,93 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée en 1753 par le naturaliste suédois Carl von Linné (1707-1778)[7]. L'épithète spécifique plantagineum signifie « qui ressemble au plantin »[8], en référence au Grand plantain  du genre Plantago.
-En classification phylogénétique APG (1998)[9] comme en classification classique de Cronquist (1981)[10], elle fait partie de la famille des Asteraceae ou composées. 
-Liste des sous-espèces
-Selon Catalogue of Life                                   (27 mai 2019)[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée en 1753 par le naturaliste suédois Carl von Linné (1707-1778). L'épithète spécifique plantagineum signifie « qui ressemble au plantin », en référence au Grand plantain  du genre Plantago.
+En classification phylogénétique APG (1998) comme en classification classique de Cronquist (1981), elle fait partie de la famille des Asteraceae ou composées. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doronicum_plantagineum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doronicum_plantagineum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 mai 2019) :
 sous-espèce Doronicum plantagineum subsp. atlanticum
 sous-espèce Doronicum plantagineum subsp. emarginatum
 sous-espèce Doronicum plantagineum subsp. plantagineum
 sous-espèce Doronicum plantagineum subsp. tournefortii
-Selon The Plant List            (27 mai 2019)[1] :
+Selon The Plant List            (27 mai 2019) :
 sous-espèce Doronicum plantagineum subsp. atlanticum (Rouy) Greuter
 sous-espèce Doronicum plantagineum subsp. emarginatum (H.J.Coste) P.Fourn.
-sous-espèce Doronicum plantagineum subsp. tournefortii (Rouy) Cout.
-Liste des variétés
-Selon Tropicos                                           (27 mai 2019)[12] :
+sous-espèce Doronicum plantagineum subsp. tournefortii (Rouy) Cout.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Doronicum_plantagineum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doronicum_plantagineum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (27 mai 2019) :
 variété Doronicum plantagineum var. excelsum N.E. Br.
 			Doronicum plantagineum Planche botanique (1924).
 			Doronicum plantagineum Habitat.
